--- a/database/sidis/expdata/3043.xlsx
+++ b/database/sidis/expdata/3043.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/files_HEPdata 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Liu/Repos/fitpack/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D84A885E-A2CD-BF41-8911-365F99FD684C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B386E7B7-33F5-7543-BEF4-59F972CC6239}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="960" windowWidth="27700" windowHeight="15920"/>
+    <workbookView xWindow="740" yWindow="960" windowWidth="27700" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zgt01_p_pt_Col" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>systabs</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>target</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -109,11 +105,15 @@
     <t>PT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>systabs_u</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1058,11 +1058,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -1108,19 +1108,19 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1149,7 +1149,7 @@
         <v>1.94</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>-5.0000000000000001E-3</v>
@@ -1164,16 +1164,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1202,7 +1202,7 @@
         <v>1.94</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3">
         <v>-5.0000000000000001E-3</v>
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>19</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>20</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1255,7 +1255,7 @@
         <v>1.95</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <v>-6.0000000000000001E-3</v>
@@ -1270,16 +1270,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
         <v>18</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>20</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1308,7 +1308,7 @@
         <v>1.95</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>-6.0000000000000001E-3</v>
@@ -1323,16 +1323,16 @@
         <v>3.60555127546399E-3</v>
       </c>
       <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
         <v>18</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>19</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>20</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1361,7 +1361,7 @@
         <v>1.97</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>8.9999999999999993E-3</v>
@@ -1376,16 +1376,16 @@
         <v>4.1231056256176594E-3</v>
       </c>
       <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
         <v>18</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>19</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>20</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1414,7 +1414,7 @@
         <v>4.97</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7">
         <v>-2.5000000000000001E-2</v>
@@ -1429,16 +1429,16 @@
         <v>3.872983346207416E-3</v>
       </c>
       <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" t="s">
         <v>18</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>19</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>20</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1467,7 +1467,7 @@
         <v>4.97</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8">
         <v>-2.5000000000000001E-2</v>
@@ -1482,16 +1482,16 @@
         <v>3.872983346207416E-3</v>
       </c>
       <c r="N8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" t="s">
         <v>18</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>19</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>20</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1520,7 +1520,7 @@
         <v>4.97</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <v>-2.8000000000000001E-2</v>
@@ -1535,16 +1535,16 @@
         <v>4.3588989435406752E-3</v>
       </c>
       <c r="N9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" t="s">
         <v>18</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>19</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>20</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1573,7 +1573,7 @@
         <v>4.97</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>-1.0999999999999999E-2</v>
@@ -1588,16 +1588,16 @@
         <v>5.5677643628300215E-3</v>
       </c>
       <c r="N10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" t="s">
         <v>18</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>19</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>20</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1626,7 +1626,7 @@
         <v>4.97</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11">
         <v>1.2E-2</v>
@@ -1641,16 +1641,16 @@
         <v>1.1357816691600544E-2</v>
       </c>
       <c r="N11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" t="s">
         <v>18</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>19</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>20</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1679,7 +1679,7 @@
         <v>9.35</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>-3.2000000000000001E-2</v>
@@ -1694,16 +1694,16 @@
         <v>3.872983346207416E-3</v>
       </c>
       <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" t="s">
         <v>18</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>19</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>20</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1732,7 +1732,7 @@
         <v>9.3699999999999992</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13">
         <v>-2.1999999999999999E-2</v>
@@ -1747,16 +1747,16 @@
         <v>3.872983346207416E-3</v>
       </c>
       <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" t="s">
         <v>18</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>19</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>20</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1785,7 +1785,7 @@
         <v>9.4</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14">
         <v>-3.3000000000000002E-2</v>
@@ -1800,16 +1800,16 @@
         <v>4.1231056256176594E-3</v>
       </c>
       <c r="N14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" t="s">
         <v>18</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>19</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>20</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1838,7 +1838,7 @@
         <v>9.44</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15">
         <v>-4.3999999999999997E-2</v>
@@ -1853,16 +1853,16 @@
         <v>7.745966692414832E-3</v>
       </c>
       <c r="N15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" t="s">
         <v>18</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>19</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>20</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1891,7 +1891,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>-4.4999999999999998E-2</v>
@@ -1906,16 +1906,16 @@
         <v>9.1651513899116757E-3</v>
       </c>
       <c r="N16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" t="s">
         <v>18</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>19</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>20</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1944,7 +1944,7 @@
         <v>25.72</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17">
         <v>-3.7999999999999999E-2</v>
@@ -1959,16 +1959,16 @@
         <v>7.745966692414832E-3</v>
       </c>
       <c r="N17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" t="s">
         <v>18</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>19</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>20</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1997,7 +1997,7 @@
         <v>25.97</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18">
         <v>-5.2999999999999999E-2</v>
@@ -2012,16 +2012,16 @@
         <v>7.745966692414832E-3</v>
       </c>
       <c r="N18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" t="s">
         <v>18</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>19</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>20</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2050,7 +2050,7 @@
         <v>26.35</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19">
         <v>-4.7E-2</v>
@@ -2065,16 +2065,16 @@
         <v>8.2462112512353188E-3</v>
       </c>
       <c r="N19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" t="s">
         <v>18</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>19</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>20</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2103,7 +2103,7 @@
         <v>26.92</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20">
         <v>-1.6E-2</v>
@@ -2118,16 +2118,16 @@
         <v>1.2609520212918489E-2</v>
       </c>
       <c r="N20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" t="s">
         <v>18</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>19</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>20</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2156,7 +2156,7 @@
         <v>28.11</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21">
         <v>-4.3999999999999997E-2</v>
@@ -2171,16 +2171,16 @@
         <v>1.5748015748023623E-2</v>
       </c>
       <c r="N21" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" t="s">
         <v>18</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>19</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>20</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
